--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
   <si>
     <t>Sr No</t>
   </si>
@@ -27,9 +27,15 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Account Card</t>
+  </si>
+  <si>
     <t>Open Browser</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Login_page</t>
   </si>
   <si>
@@ -232,12 +238,6 @@
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -275,6 +275,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -331,7 +336,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,11 +353,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -441,10 +450,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C30"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -452,7 +461,9 @@
     <col min="1" max="1" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
     <col min="2" max="2" hidden="false" style="0" width="25.8367346938776" collapsed="true"/>
     <col min="3" max="3" hidden="false" style="0" width="17.2244897959184" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="20.6989795918367" collapsed="true"/>
+    <col min="6" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,49 +477,82 @@
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1078.0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1064.0</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,66 +560,111 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1161.0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1090.0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1109.0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1115.0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1079.0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1326.0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1342</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1425</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,39 +672,51 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1080</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1076</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,39 +724,45 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1077</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
+      <c r="B20" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>13</v>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>14</v>
+      <c r="B22" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>16</v>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,7 +770,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1144</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,7 +784,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1348</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,7 +798,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1283</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,15 +812,27 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1330</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>22</v>
+      <c r="B28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1281</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,71 +840,77 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1355</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>24</v>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>25</v>
+      <c r="B31" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>14</v>
+      <c r="B32" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
+      <c r="B33" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>12</v>
+      <c r="B34" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>13</v>
+      <c r="B35" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>14</v>
+      <c r="B36" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>16</v>
+      <c r="B37" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,151 +918,151 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>12</v>
+      <c r="B39" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>13</v>
+      <c r="B40" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>28</v>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>14</v>
+      <c r="B42" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>16</v>
+      <c r="B43" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>29</v>
+      <c r="B44" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>30</v>
+      <c r="B45" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>31</v>
+      <c r="B46" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>32</v>
+      <c r="B47" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>28</v>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>33</v>
+      <c r="B49" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>34</v>
+      <c r="B50" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>35</v>
+      <c r="B51" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>36</v>
+      <c r="B52" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>37</v>
+      <c r="B53" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>38</v>
+      <c r="B54" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>39</v>
+      <c r="B55" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>14</v>
+      <c r="B56" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,7 +1070,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,7 +1078,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,7 +1086,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,15 +1094,15 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>43</v>
+      <c r="B61" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,7 +1110,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,15 +1118,15 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>28</v>
+      <c r="B64" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,15 +1134,15 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>44</v>
+      <c r="B66" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,7 +1150,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +1158,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,7 +1166,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,15 +1174,15 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>46</v>
+      <c r="B71" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,15 +1190,15 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>48</v>
+      <c r="B73" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,7 +1206,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,7 +1214,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,7 +1222,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,23 +1230,23 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>53</v>
+      <c r="B78" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>54</v>
+      <c r="B79" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,7 +1254,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,7 +1262,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,7 +1270,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,7 +1278,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,7 +1286,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1151,7 +1294,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,7 +1302,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,7 +1310,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,7 +1352,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C2:C30"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1225,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1236,44 +1379,44 @@
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
+      <c r="B2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>66</v>
+      <c r="B3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>68</v>
+      <c r="B4" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>70</v>
+      <c r="B5" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,44 +1428,44 @@
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="L13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -1333,25 +1476,25 @@
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -1362,25 +1505,25 @@
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -1406,7 +1549,7 @@
       <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -1417,7 +1560,7 @@
       <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="76">
   <si>
     <t>Sr No</t>
   </si>
@@ -27,82 +27,88 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Total_time</t>
+  </si>
+  <si>
+    <t>Test  Sub scenario</t>
+  </si>
+  <si>
+    <t>Open Browser</t>
+  </si>
+  <si>
+    <t>Login_page</t>
+  </si>
+  <si>
+    <t>Application_page</t>
+  </si>
+  <si>
+    <t>Data Discovery</t>
+  </si>
+  <si>
     <t>Account Card</t>
   </si>
   <si>
-    <t>Open Browser</t>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Vizpod</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Data Ingest</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>Rule Group</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Data Profile</t>
+  </si>
+  <si>
+    <t>Compare Result</t>
+  </si>
+  <si>
+    <t>Data Quality</t>
+  </si>
+  <si>
+    <t>Data Preparation</t>
+  </si>
+  <si>
+    <t>Datapod</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Data Renconciliation</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Login_page</t>
-  </si>
-  <si>
-    <t>Application_page</t>
-  </si>
-  <si>
-    <t>Data Discovery</t>
-  </si>
-  <si>
-    <t>Data Visualization</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Vizpod</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Data Ingest</t>
-  </si>
-  <si>
-    <t>Rule</t>
-  </si>
-  <si>
-    <t>Rule Group</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Data Profile</t>
-  </si>
-  <si>
-    <t>Compare Result</t>
-  </si>
-  <si>
-    <t>Data Quality</t>
-  </si>
-  <si>
-    <t>Data Preparation</t>
-  </si>
-  <si>
-    <t>Datapod</t>
-  </si>
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Relation</t>
-  </si>
-  <si>
-    <t>Data Renconciliation</t>
   </si>
   <si>
     <t>Business Rule</t>
@@ -247,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -275,11 +281,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -336,7 +337,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,19 +354,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,10 +447,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38:AG38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -476,8 +473,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="0" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -486,23 +491,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1078.0</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -512,13 +509,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,13 +523,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,408 +537,430 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>1064.0</v>
+        <v>1166.0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1544.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1161.0</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1090.0</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>1109.0</v>
+        <v>1169.0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>1115.0</v>
+        <v>1086.0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>1079.0</v>
+        <v>1066.0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>1326.0</v>
+        <v>1079.0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1342</v>
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1106.0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1425</v>
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1269.0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1080</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1255.0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1252.0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1068.0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1076</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1077</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>14</v>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1076.0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1124.0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1144</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1348</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1283</v>
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1121.0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>1330</v>
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1358.0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1281</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1304.0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1355</v>
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1359.0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1330.0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1354.0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1370.0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1300.0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1088.0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1071.0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>16</v>
@@ -955,239 +968,311 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1321.0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1104.0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1280.0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1366</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1309</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="C51" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1268</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="C52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1346</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="C53" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1314</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="C54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1352</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="C55" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1260</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1079</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="C59" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1303</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>49</v>
@@ -1195,7 +1280,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>50</v>
@@ -1203,7 +1288,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>51</v>
@@ -1211,15 +1296,15 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>53</v>
@@ -1227,7 +1312,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>54</v>
@@ -1235,39 +1320,39 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>59</v>
@@ -1275,7 +1360,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>60</v>
@@ -1283,7 +1368,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>61</v>
@@ -1291,7 +1376,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>62</v>
@@ -1299,7 +1384,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>63</v>
@@ -1307,7 +1392,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>64</v>
@@ -1315,21 +1400,37 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1352,7 +1453,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="D38:AG38 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1368,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1379,22 +1480,22 @@
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>68</v>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>68</v>
+      <c r="B3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,10 +1503,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,10 +1514,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1566,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
   <si>
     <t>Sr No</t>
   </si>
@@ -108,142 +108,142 @@
     <t>Data Renconciliation</t>
   </si>
   <si>
+    <t>Business Rule</t>
+  </si>
+  <si>
+    <t>Parameter List</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Parameter Set</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Model Deploy</t>
+  </si>
+  <si>
+    <t>What-If-Analysis</t>
+  </si>
+  <si>
+    <t>Graph Analysis</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Batch Scheduler</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Datasource</t>
+  </si>
+  <si>
+    <t>Datastore</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Privilege</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Register Source</t>
+  </si>
+  <si>
+    <t>Migration Assist</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>File Manager</t>
+  </si>
+  <si>
+    <t>Job Monitoring</t>
+  </si>
+  <si>
+    <t>System Monitoring</t>
+  </si>
+  <si>
+    <t>Metadata Navigator</t>
+  </si>
+  <si>
+    <t>Param_Name</t>
+  </si>
+  <si>
+    <t>Return_value</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>ypalrecha</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>APPLICATION</t>
+  </si>
+  <si>
+    <t>Enterprise Data Warehouse</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Business Rule</t>
-  </si>
-  <si>
-    <t>Parameter List</t>
-  </si>
-  <si>
-    <t>Data Science</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Parameter Set</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Prediction</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>Model Deploy</t>
-  </si>
-  <si>
-    <t>What-If-Analysis</t>
-  </si>
-  <si>
-    <t>Graph Analysis</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>Batch Scheduler</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Datasource</t>
-  </si>
-  <si>
-    <t>Datastore</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>Privilege</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Register Source</t>
-  </si>
-  <si>
-    <t>Migration Assist</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>File Manager</t>
-  </si>
-  <si>
-    <t>Job Monitoring</t>
-  </si>
-  <si>
-    <t>System Monitoring</t>
-  </si>
-  <si>
-    <t>Metadata Navigator</t>
-  </si>
-  <si>
-    <t>Param_Name</t>
-  </si>
-  <si>
-    <t>Return_value</t>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-  </si>
-  <si>
-    <t>ypalrecha</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>APPLICATION</t>
-  </si>
-  <si>
-    <t>Enterprise Data Warehouse</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38:AG38"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -509,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -523,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -537,19 +537,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>1166.0</v>
+        <v>1180.0</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
-        <v>1544.0</v>
+        <v>1251.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,10 +568,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>1169.0</v>
+        <v>1274.0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,10 +582,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D9" t="n">
-        <v>1086.0</v>
+        <v>1197.0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,10 +596,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D10" t="n">
-        <v>1066.0</v>
+        <v>1139.0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,10 +610,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.0</v>
+        <v>1175.0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,10 +624,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>1106.0</v>
+        <v>1183.0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,10 +638,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>1269.0</v>
+        <v>1753.0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,10 +652,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D14" t="n">
-        <v>1255.0</v>
+        <v>1774.0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,10 +666,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D15" t="n">
-        <v>1252.0</v>
+        <v>1668.0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,10 +680,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D16" t="n">
-        <v>1068.0</v>
+        <v>1224.0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,10 +718,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D20" t="n">
-        <v>1076.0</v>
+        <v>1158.0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,10 +732,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D21" t="n">
-        <v>1124.0</v>
+        <v>1211.0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,10 +778,10 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D26" t="n">
-        <v>1121.0</v>
+        <v>1309.0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,10 +792,10 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D27" t="n">
-        <v>1358.0</v>
+        <v>1787.0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,10 +806,10 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D28" t="n">
-        <v>1304.0</v>
+        <v>1775.0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,10 +820,10 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D29" t="n">
-        <v>1359.0</v>
+        <v>1706.0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,10 +834,10 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D30" t="n">
-        <v>1330.0</v>
+        <v>1602.0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,10 +848,10 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D31" t="n">
-        <v>1354.0</v>
+        <v>1805.0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,10 +862,10 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D32" t="n">
-        <v>1370.0</v>
+        <v>1927.0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,10 +876,10 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D33" t="n">
-        <v>1300.0</v>
+        <v>1769.0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,10 +898,10 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D35" t="n">
-        <v>1088.0</v>
+        <v>1257.0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,13 +941,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D40" t="n">
-        <v>1071.0</v>
+        <v>1166.0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,13 +971,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D43" t="n">
-        <v>1321.0</v>
+        <v>2013.0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,13 +1001,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D46" t="n">
-        <v>1104.0</v>
+        <v>1179.0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,13 +1015,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D47" t="n">
-        <v>1280.0</v>
+        <v>1653.0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,13 +1029,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1366</v>
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1212.0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,13 +1043,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1309</v>
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1665.0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,7 +1057,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,13 +1065,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>1268</v>
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1711.0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,13 +1079,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1346</v>
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1722.0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,13 +1093,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1314</v>
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2033.0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,13 +1107,13 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>1352</v>
+        <v>39</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1744.0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,13 +1121,13 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>1260</v>
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1727.0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,13 +1135,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>1079</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,7 +1143,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,13 +1159,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>1303</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,7 +1167,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,7 +1175,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,7 +1191,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,7 +1199,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,7 +1207,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,7 +1215,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,7 +1231,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,7 +1239,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,7 +1247,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,7 +1263,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,7 +1271,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,7 +1279,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,7 +1287,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,7 +1295,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,7 +1303,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,7 +1311,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,7 +1319,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,7 +1327,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1347,7 +1335,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,7 +1343,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,7 +1351,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,7 +1359,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,7 +1367,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,7 +1375,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,7 +1383,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,7 +1391,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,7 +1399,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,7 +1441,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="D38:AG38 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F3:G14 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1469,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1481,10 +1469,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,10 +1480,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>Sr No</t>
   </si>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3:G14"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -497,7 +497,7 @@
         <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>2317.0</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -512,7 +512,7 @@
         <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>2052.0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,7 +526,7 @@
         <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>263.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,7 +540,7 @@
         <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>1180.0</v>
+        <v>1161.0</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
@@ -549,7 +549,7 @@
         <v>75</v>
       </c>
       <c r="G5" t="n">
-        <v>1251.0</v>
+        <v>1211.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,7 +571,7 @@
         <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>1274.0</v>
+        <v>1327.0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,7 +585,7 @@
         <v>75</v>
       </c>
       <c r="D9" t="n">
-        <v>1197.0</v>
+        <v>1205.0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,7 +599,7 @@
         <v>75</v>
       </c>
       <c r="D10" t="n">
-        <v>1139.0</v>
+        <v>1161.0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,7 +613,7 @@
         <v>75</v>
       </c>
       <c r="D11" t="n">
-        <v>1175.0</v>
+        <v>1192.0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,7 +627,7 @@
         <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>1183.0</v>
+        <v>1178.0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,7 +641,7 @@
         <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>1753.0</v>
+        <v>1747.0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,7 +655,7 @@
         <v>75</v>
       </c>
       <c r="D14" t="n">
-        <v>1774.0</v>
+        <v>1790.0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,12 +665,6 @@
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1668.0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -679,12 +673,6 @@
       <c r="B16" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1224.0</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -717,12 +705,6 @@
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1158.0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -731,12 +713,6 @@
       <c r="B21" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1211.0</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -777,12 +753,6 @@
       <c r="B26" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1309.0</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
@@ -791,12 +761,6 @@
       <c r="B27" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1787.0</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -805,12 +769,6 @@
       <c r="B28" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1775.0</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -819,12 +777,6 @@
       <c r="B29" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1706.0</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -833,12 +785,6 @@
       <c r="B30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1602.0</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
@@ -847,12 +793,6 @@
       <c r="B31" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1805.0</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
@@ -861,12 +801,6 @@
       <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1927.0</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -875,12 +809,6 @@
       <c r="B33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1769.0</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
@@ -897,12 +825,6 @@
       <c r="B35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1257.0</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
@@ -943,12 +865,6 @@
       <c r="B40" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1166.0</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
@@ -973,12 +889,6 @@
       <c r="B43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2013.0</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
@@ -1003,12 +913,6 @@
       <c r="B46" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1179.0</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
@@ -1017,12 +921,6 @@
       <c r="B47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1653.0</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
@@ -1031,12 +929,6 @@
       <c r="B48" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1212.0</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
@@ -1045,12 +937,6 @@
       <c r="B49" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1665.0</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
@@ -1067,12 +953,6 @@
       <c r="B51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1711.0</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
@@ -1081,12 +961,6 @@
       <c r="B52" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1722.0</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
@@ -1095,12 +969,6 @@
       <c r="B53" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2033.0</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
@@ -1109,12 +977,6 @@
       <c r="B54" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1744.0</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
@@ -1122,12 +984,6 @@
       </c>
       <c r="B55" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1727.0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,7 +1297,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F3:G14 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F5:G5 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="77">
   <si>
     <t>Sr No</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Account Card</t>
+  </si>
+  <si>
+    <t>Account Edit</t>
   </si>
   <si>
     <t>Data Visualization</t>
@@ -450,7 +453,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="F5:G5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -494,10 +497,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>2317.0</v>
+        <v>2513.0</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -509,10 +512,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
-        <v>2052.0</v>
+        <v>2083.0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,10 +526,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
-        <v>263.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,24 +540,27 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>1161.0</v>
+        <v>1146.0</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="n">
-        <v>1211.0</v>
+        <v>1172.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
@@ -565,13 +571,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
-        <v>1327.0</v>
+        <v>1283.0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,13 +585,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" t="n">
-        <v>1205.0</v>
+        <v>1189.0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,13 +599,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" t="n">
-        <v>1161.0</v>
+        <v>1148.0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,13 +613,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" t="n">
-        <v>1192.0</v>
+        <v>1187.0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,13 +627,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" t="n">
-        <v>1178.0</v>
+        <v>1148.0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,13 +641,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" t="n">
-        <v>1747.0</v>
+        <v>1690.0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,13 +655,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" t="n">
-        <v>1790.0</v>
+        <v>1712.0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,7 +669,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1761.0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,7 +683,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1150.0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,7 +697,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,7 +705,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +713,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,7 +721,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1167.0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,7 +735,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1199.0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,7 +749,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,7 +757,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +781,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1303.0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,7 +795,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1819.0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,7 +809,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1795.0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,7 +823,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1668.0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,7 +837,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1731.0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,7 +851,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1939.0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,7 +865,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1914.0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,7 +879,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1713.0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,7 +893,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,7 +901,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1257.0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,7 +915,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,7 +923,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,7 +931,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +939,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,7 +947,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1223.0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,7 +961,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,7 +969,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,7 +977,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,7 +985,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,7 +993,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,7 +1001,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,7 +1009,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,7 +1017,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,7 +1025,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,7 +1033,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,7 +1041,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,7 +1049,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,7 +1057,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,7 +1065,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,7 +1073,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,7 +1081,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,7 +1089,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,7 +1097,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +1105,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,7 +1113,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,7 +1121,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,7 +1129,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,7 +1137,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1145,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,7 +1153,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,7 +1161,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,7 +1169,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,7 +1177,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,7 +1185,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,7 +1193,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,7 +1201,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,7 +1209,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,7 +1217,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,7 +1225,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,7 +1233,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1151,7 +1241,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,7 +1249,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,7 +1257,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,7 +1265,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,7 +1273,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,7 +1281,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,7 +1289,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,7 +1297,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,7 +1305,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,7 +1313,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,7 +1321,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,7 +1329,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,7 +1337,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1345,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,7 +1387,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F5:G5 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C2:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1313,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1325,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,10 +1426,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1347,10 +1437,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,10 +1448,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
   <si>
     <t>Sr No</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -452,12 +458,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="25.8367346938776" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="17.2244897959184" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="20.6989795918367" collapsed="true"/>
+    <col min="6" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,6 +496,12 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1235.0</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,6 +511,12 @@
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2035.0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -507,6 +525,12 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>115.0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -515,8 +539,20 @@
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1062.0</v>
+      </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1084.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,6 +570,12 @@
       <c r="B8" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1108.0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -542,6 +584,12 @@
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1089.0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -550,6 +598,12 @@
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1063.0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -558,6 +612,12 @@
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1067.0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -566,6 +626,12 @@
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1091.0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -574,6 +640,12 @@
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1256.0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -582,6 +654,12 @@
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1259.0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -590,6 +668,12 @@
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1100.0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -598,6 +682,12 @@
       <c r="B16" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1069.0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -630,6 +720,12 @@
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1066.0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -638,6 +734,12 @@
       <c r="B21" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1069.0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -678,6 +780,12 @@
       <c r="B26" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1119.0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
@@ -686,6 +794,12 @@
       <c r="B27" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1369.0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -694,6 +808,12 @@
       <c r="B28" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1328.0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -702,6 +822,12 @@
       <c r="B29" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1262.0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -710,6 +836,12 @@
       <c r="B30" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1350.0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
@@ -718,6 +850,12 @@
       <c r="B31" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1334.0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
@@ -726,6 +864,12 @@
       <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1311.0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -734,6 +878,12 @@
       <c r="B33" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1291.0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
@@ -750,6 +900,12 @@
       <c r="B35" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1084.0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
@@ -790,6 +946,12 @@
       <c r="B40" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1102.0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
@@ -814,6 +976,12 @@
       <c r="B43" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1309.0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
@@ -838,6 +1006,12 @@
       <c r="B46" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1111.0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
@@ -846,6 +1020,12 @@
       <c r="B47" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1261.0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
@@ -854,6 +1034,12 @@
       <c r="B48" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1242.0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
@@ -862,6 +1048,12 @@
       <c r="B49" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1341.0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
@@ -878,6 +1070,12 @@
       <c r="B51" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1334.0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
@@ -886,6 +1084,12 @@
       <c r="B52" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1283.0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
@@ -894,6 +1098,12 @@
       <c r="B53" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1330.0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
@@ -902,6 +1112,12 @@
       <c r="B54" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1258.0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
@@ -910,6 +1126,12 @@
       <c r="B55" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1330.0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
@@ -917,6 +1139,12 @@
       </c>
       <c r="B56" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1074.0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,10 +1455,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="16.8112244897959" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="15.9744897959184" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="23.4795918367347" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="78">
   <si>
     <t>Sr No</t>
   </si>
@@ -48,6 +48,12 @@
     <t>Account Card</t>
   </si>
   <si>
+    <t>Account Edit</t>
+  </si>
+  <si>
+    <t>Meta Comp</t>
+  </si>
+  <si>
     <t>Data Visualization</t>
   </si>
   <si>
@@ -84,6 +90,9 @@
     <t>Data Preparation</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Datapod</t>
   </si>
   <si>
@@ -241,12 +250,6 @@
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -497,10 +500,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>1235.0</v>
+        <v>1728.0</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -512,10 +515,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>2035.0</v>
+        <v>2044.0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,10 +529,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>115.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,41 +543,59 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>1062.0</v>
+        <v>1063.0</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
-        <v>1084.0</v>
+        <v>1088.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1677.0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1108.0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>1108.0</v>
+        <v>1136.0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,13 +603,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>1089.0</v>
+        <v>1084.0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,13 +617,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>1063.0</v>
+        <v>1062.0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,13 +631,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.0</v>
+        <v>1218.0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,13 +645,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>1091.0</v>
+        <v>1115.0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,13 +659,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>1256.0</v>
+        <v>1331.0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,13 +673,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>1259.0</v>
+        <v>1346.0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,13 +687,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>1100.0</v>
+        <v>1271.0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,13 +701,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>1069.0</v>
+        <v>1063.0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,7 +715,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,7 +723,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,7 +731,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,13 +739,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
-        <v>1066.0</v>
+        <v>1116.0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,13 +753,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>1069.0</v>
+        <v>1114.0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,7 +767,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,7 +775,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,7 +783,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,7 +791,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,13 +799,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>1119.0</v>
+        <v>1121.0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,13 +813,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
-        <v>1369.0</v>
+        <v>1375.0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,13 +827,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D28" t="n">
-        <v>1328.0</v>
+        <v>1307.0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,13 +841,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D29" t="n">
-        <v>1262.0</v>
+        <v>1386.0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,13 +855,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D30" t="n">
-        <v>1350.0</v>
+        <v>1294.0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,13 +869,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D31" t="n">
-        <v>1334.0</v>
+        <v>1312.0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,13 +883,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D32" t="n">
-        <v>1311.0</v>
+        <v>1390.0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,13 +897,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D33" t="n">
-        <v>1291.0</v>
+        <v>1292.0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,7 +911,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,10 +919,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D35" t="n">
         <v>1084.0</v>
@@ -912,7 +933,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,7 +941,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,7 +949,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,7 +957,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,13 +965,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D40" t="n">
-        <v>1102.0</v>
+        <v>1058.0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,7 +979,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,7 +987,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,13 +995,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D43" t="n">
-        <v>1309.0</v>
+        <v>1254.0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,7 +1009,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -996,7 +1017,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,13 +1025,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D46" t="n">
-        <v>1111.0</v>
+        <v>1096.0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,13 +1039,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D47" t="n">
-        <v>1261.0</v>
+        <v>1513.0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,13 +1053,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D48" t="n">
-        <v>1242.0</v>
+        <v>1309.0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,13 +1067,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D49" t="n">
-        <v>1341.0</v>
+        <v>1315.0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,7 +1081,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,13 +1089,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D51" t="n">
-        <v>1334.0</v>
+        <v>1292.0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,13 +1103,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D52" t="n">
-        <v>1283.0</v>
+        <v>1406.0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,13 +1117,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D53" t="n">
-        <v>1330.0</v>
+        <v>1339.0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,13 +1131,13 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D54" t="n">
-        <v>1258.0</v>
+        <v>1392.0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,13 +1145,13 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D55" t="n">
-        <v>1330.0</v>
+        <v>1272.0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,13 +1159,13 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D56" t="n">
-        <v>1074.0</v>
+        <v>1127.0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,7 +1173,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,7 +1181,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,7 +1189,13 @@
         <v>56</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1117.0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,7 +1203,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,7 +1211,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,7 +1219,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,7 +1227,13 @@
         <v>60</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1073.0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,7 +1241,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,7 +1249,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,7 +1257,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,7 +1265,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,7 +1273,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,7 +1287,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,7 +1295,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,7 +1303,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,7 +1311,13 @@
         <v>69</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1120.0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,7 +1325,13 @@
         <v>70</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1496.0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,7 +1339,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,7 +1347,13 @@
         <v>72</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1319.0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,7 +1361,13 @@
         <v>73</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1370.0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,7 +1375,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,7 +1383,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1393.0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,7 +1397,13 @@
         <v>76</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1328.0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,7 +1411,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1390.0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,7 +1425,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="C81" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1331.0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,7 +1439,13 @@
         <v>79</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1259.0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,7 +1453,13 @@
         <v>80</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1109.0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,7 +1467,13 @@
         <v>81</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1066.0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,7 +1481,13 @@
         <v>82</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1071.0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,7 +1495,13 @@
         <v>83</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1064.0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,7 +1509,13 @@
         <v>84</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4081.0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,7 +1523,13 @@
         <v>85</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4091.0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,7 +1537,13 @@
         <v>86</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6126.0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1478,10 +1613,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,10 +1624,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,10 +1635,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,10 +1646,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -10,13 +10,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="datapod" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
   <si>
     <t>Sr No</t>
   </si>
@@ -36,6 +37,9 @@
     <t>Open Browser</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Login_page</t>
   </si>
   <si>
@@ -54,15 +58,33 @@
     <t>Meta Comp</t>
   </si>
   <si>
+    <t>Sample Record</t>
+  </si>
+  <si>
+    <t>Data Store</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>Knowledge Graph</t>
+  </si>
+  <si>
     <t>Data Visualization</t>
   </si>
   <si>
     <t>Dashboard</t>
   </si>
   <si>
+    <t>Dashboard Tile</t>
+  </si>
+  <si>
     <t>Vizpod</t>
   </si>
   <si>
+    <t>Vizpod Add</t>
+  </si>
+  <si>
     <t>Report</t>
   </si>
   <si>
@@ -90,12 +112,12 @@
     <t>Data Preparation</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>Datapod</t>
   </si>
   <si>
+    <t>Datapod  Add</t>
+  </si>
+  <si>
     <t>Dataset</t>
   </si>
   <si>
@@ -250,6 +272,48 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">firstName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>firstNafme</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -259,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -292,6 +356,32 @@
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Monospace"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -343,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,12 +458,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -404,7 +506,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF6A3E3E"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -453,20 +555,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.8367346938776" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="17.2244897959184" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="20.6989795918367" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,11 +601,11 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1728.0</v>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2325</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -512,13 +614,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2044.0</v>
+      <c r="D3" s="0" t="n">
+        <v>2058</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,13 +628,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>127.0</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,1029 +642,816 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1063.0</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1169</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1088.0</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1209</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1677.0</v>
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2308</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
       <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1108.0</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1228</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1136.0</v>
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1084.0</v>
+      <c r="G9" s="0" t="n">
+        <v>1283</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1062.0</v>
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1218.0</v>
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1350</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1115.0</v>
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1297</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1331.0</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1245</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1824</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1346.0</v>
+        <v>20</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1189</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1271.0</v>
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1188</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1063.0</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1210</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1116.0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1114.0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1121.0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1375.0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1307.0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1386.0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1294.0</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1312.0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
         <v>24</v>
       </c>
-      <c r="D32" t="n">
-        <v>1390.0</v>
+      <c r="B32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1292.0</v>
+        <v>25</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1084.0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1058.0</v>
+        <v>32</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1254.0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" t="s">
         <v>24</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1096.0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1513.0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1309.0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1315.0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1292.0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1406.0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1339.0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1392.0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1272.0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1127.0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1117.0</v>
+        <v>51</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1073.0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" t="n">
-        <v>94.0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>19</v>
+        <v>63</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1120.0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1496.0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1319.0</v>
+        <v>67</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1370.0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1393.0</v>
+        <v>70</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1328.0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C80" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1390.0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1331.0</v>
+        <v>73</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1259.0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C83" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1109.0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1066.0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1071.0</v>
+        <v>77</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1064.0</v>
+        <v>78</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C87" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" t="n">
-        <v>4081.0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" t="n">
-        <v>4091.0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C89" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" t="n">
-        <v>6126.0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1590,10 +1479,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="16.8112244897959" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="15.9744897959184" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="23.4795918367347" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1613,21 +1502,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>73</v>
+      <c r="B3" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,10 +1524,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,10 +1535,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,4 +1693,101 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
   <si>
     <t>Sr No</t>
   </si>
@@ -54,15 +54,39 @@
     <t>Meta Comp</t>
   </si>
   <si>
+    <t>Sample Record</t>
+  </si>
+  <si>
+    <t>Data Store</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>Knowledge Graph</t>
+  </si>
+  <si>
+    <t>Close Icon</t>
+  </si>
+  <si>
     <t>Data Visualization</t>
   </si>
   <si>
     <t>Dashboard</t>
   </si>
   <si>
+    <t>Dashboard Tile</t>
+  </si>
+  <si>
+    <t>Create Dashboard</t>
+  </si>
+  <si>
     <t>Vizpod</t>
   </si>
   <si>
+    <t>Vizpod Add</t>
+  </si>
+  <si>
     <t>Report</t>
   </si>
   <si>
@@ -90,166 +114,166 @@
     <t>Data Preparation</t>
   </si>
   <si>
+    <t>Datapod</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Data Renconciliation</t>
+  </si>
+  <si>
+    <t>Business Rule</t>
+  </si>
+  <si>
+    <t>Parameter List</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Parameter Set</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Model Deploy</t>
+  </si>
+  <si>
+    <t>What-If-Analysis</t>
+  </si>
+  <si>
+    <t>Graph Analysis</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Batch Scheduler</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Datasource</t>
+  </si>
+  <si>
+    <t>Datastore</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Privilege</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Register Source</t>
+  </si>
+  <si>
+    <t>Migration Assist</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>File Manager</t>
+  </si>
+  <si>
+    <t>Job Monitoring</t>
+  </si>
+  <si>
+    <t>System Monitoring</t>
+  </si>
+  <si>
+    <t>Metadata Navigator</t>
+  </si>
+  <si>
+    <t>Param_Name</t>
+  </si>
+  <si>
+    <t>Return_value</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>ypalrecha</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>APPLICATION</t>
+  </si>
+  <si>
+    <t>Enterprise Data Warehouse</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Datapod</t>
-  </si>
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Relation</t>
-  </si>
-  <si>
-    <t>Data Renconciliation</t>
-  </si>
-  <si>
-    <t>Business Rule</t>
-  </si>
-  <si>
-    <t>Parameter List</t>
-  </si>
-  <si>
-    <t>Data Science</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Parameter Set</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Prediction</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>Model Deploy</t>
-  </si>
-  <si>
-    <t>What-If-Analysis</t>
-  </si>
-  <si>
-    <t>Graph Analysis</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>Batch Scheduler</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Datasource</t>
-  </si>
-  <si>
-    <t>Datastore</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>Privilege</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Register Source</t>
-  </si>
-  <si>
-    <t>Migration Assist</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>File Manager</t>
-  </si>
-  <si>
-    <t>Job Monitoring</t>
-  </si>
-  <si>
-    <t>System Monitoring</t>
-  </si>
-  <si>
-    <t>Metadata Navigator</t>
-  </si>
-  <si>
-    <t>Param_Name</t>
-  </si>
-  <si>
-    <t>Return_value</t>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-  </si>
-  <si>
-    <t>ypalrecha</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>APPLICATION</t>
-  </si>
-  <si>
-    <t>Enterprise Data Warehouse</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -453,10 +477,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -500,10 +524,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>1728.0</v>
+        <v>2243.0</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -515,10 +539,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>2044.0</v>
+        <v>2056.0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>127.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,19 +567,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
-        <v>1063.0</v>
+        <v>1162.0</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="G5" t="n">
-        <v>1088.0</v>
+        <v>1211.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,10 +589,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="G6" t="n">
-        <v>1677.0</v>
+        <v>2382.0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,991 +602,797 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="G7" t="n">
-        <v>1108.0</v>
+        <v>1244.0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1136.0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1084.0</v>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3372.0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1062.0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1218.0</v>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1366.0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1115.0</v>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1332.0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D13" t="n">
-        <v>1331.0</v>
+        <v>1344.0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D14" t="n">
-        <v>1346.0</v>
+        <v>1178.0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1263.0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1271.0</v>
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1181.0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D16" t="n">
-        <v>1063.0</v>
+        <v>1196.0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>17</v>
+      <c r="A17" s="2"/>
+      <c r="B17" s="5"/>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1192.0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1206.0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1116.0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1114.0</v>
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1121.0</v>
+        <v>16</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1375.0</v>
+        <v>17</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1307.0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1386.0</v>
+        <v>19</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1294.0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1312.0</v>
+        <v>21</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1390.0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1292.0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1084.0</v>
+        <v>25</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1058.0</v>
+        <v>30</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1254.0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1096.0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1513.0</v>
+        <v>37</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1309.0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1315.0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1292.0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1406.0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1339.0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1392.0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1272.0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1127.0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1117.0</v>
+        <v>49</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>19</v>
+        <v>52</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1073.0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" t="n">
-        <v>94.0</v>
+        <v>58</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1120.0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1496.0</v>
+        <v>63</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1319.0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1370.0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1393.0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C79" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1328.0</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C80" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1390.0</v>
-      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B81" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="C81" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1331.0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B82" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C82" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1259.0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C83" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1109.0</v>
-      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C84" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1066.0</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1071.0</v>
-      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C86" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1064.0</v>
-      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="B87" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C87" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" t="n">
-        <v>4081.0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="B88" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" t="n">
-        <v>4091.0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C89" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" t="n">
-        <v>6126.0</v>
-      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1585,7 +1415,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1601,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1613,10 +1443,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,10 +1454,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,10 +1465,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
   <si>
     <t>Sr No</t>
   </si>
@@ -563,12 +563,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="25.8367346938776" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="17.2244897959184" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="20.6989795918367" collapsed="true"/>
+    <col min="6" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,11 +601,11 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2325</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2435.0</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -616,11 +616,11 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2058</v>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2053.0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,11 +630,11 @@
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>240</v>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8261.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,20 +644,20 @@
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1169</v>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1169.0</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1209</v>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1210.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,11 +666,11 @@
       <c r="E6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>2308</v>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2325.0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,11 +679,11 @@
       <c r="E7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1228</v>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1264.0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,11 +699,11 @@
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1283</v>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3247.0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,11 +719,11 @@
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1350</v>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1367.0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,11 +733,11 @@
       <c r="B12" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1297</v>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1302.0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,20 +747,20 @@
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1245</v>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1152.0</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1824</v>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1197.0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,11 +770,11 @@
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1189</v>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1191.0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,11 +783,11 @@
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1188</v>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1188.0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,11 +797,11 @@
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1210</v>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1186.0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,6 +923,12 @@
       <c r="B31" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1190.0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
@@ -931,8 +937,20 @@
       <c r="B32" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1982.0</v>
+      </c>
       <c r="E32" s="6" t="s">
         <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,10 +1497,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="16.8112244897959" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="15.9744897959184" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="23.4795918367347" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,7 +1726,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="96">
   <si>
     <t>Sr No</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2435.0</v>
+        <v>1403.0</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -620,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2053.0</v>
+        <v>2040.0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>8261.0</v>
+        <v>8115.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1169.0</v>
+        <v>1058.0</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
@@ -657,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>1210.0</v>
+        <v>1083.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>2325.0</v>
+        <v>1340.0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>1264.0</v>
+        <v>1111.0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,6 +695,12 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1114.0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -703,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>3247.0</v>
+        <v>1172.0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,6 +721,12 @@
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1311.0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
@@ -723,7 +738,7 @@
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>1367.0</v>
+        <v>1114.0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1302.0</v>
+        <v>1100.0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1152.0</v>
+        <v>1072.0</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>19</v>
@@ -760,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>1197.0</v>
+        <v>1103.0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1191.0</v>
+        <v>1084.0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>1188.0</v>
+        <v>1092.0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,7 +816,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1186.0</v>
+        <v>1088.0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1190.0</v>
+        <v>1073.0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1982.0</v>
+        <v>1416.0</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>32</v>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="96">
   <si>
     <t>Sr No</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Open Browser</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>Login_page</t>
@@ -316,6 +313,9 @@
     <t>f</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
 </sst>
@@ -326,7 +326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -360,11 +360,6 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -436,7 +431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -461,10 +456,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -473,11 +464,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -560,8 +551,8 @@
   </sheetPr>
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -605,10 +596,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>1403.0</v>
+        <v>1324.0</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -617,13 +608,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>2040.0</v>
+        <v>2030.0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,13 +622,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n">
-        <v>8115.0</v>
+        <v>8128.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,97 +636,97 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1077.0</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1058.0</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G5" t="n">
-        <v>1083.0</v>
+        <v>1080.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G6" t="n">
-        <v>1340.0</v>
+        <v>1330.0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G7" t="n">
-        <v>1111.0</v>
+        <v>1101.0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" t="n">
-        <v>1114.0</v>
+        <v>2093.0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="5"/>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>1172.0</v>
+        <v>1153.0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G10" t="n">
-        <v>1311.0</v>
+        <v>1001.0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="5"/>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G11" t="n">
         <v>1114.0</v>
@@ -746,13 +737,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D12" t="n">
-        <v>1100.0</v>
+        <v>1113.0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,22 +751,22 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1063.0</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1072.0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G13" t="n">
-        <v>1103.0</v>
+        <v>1124.0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,26 +774,26 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D14" t="n">
-        <v>1084.0</v>
+        <v>1081.0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G15" t="n">
-        <v>1092.0</v>
+        <v>1098.0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,10 +801,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D16" t="n">
         <v>1088.0</v>
@@ -824,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,7 +839,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,7 +863,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,7 +879,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,7 +887,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,7 +903,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,7 +911,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,13 +927,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D31" t="n">
-        <v>1073.0</v>
+        <v>1107.0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,19 +941,19 @@
         <v>24</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1535.0</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1416.0</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G32" t="n">
         <v>1000.0</v>
@@ -973,7 +964,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,7 +972,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="5"/>
     </row>
@@ -990,7 +981,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,7 +989,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="5"/>
     </row>
@@ -1007,7 +998,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="5"/>
     </row>
@@ -1016,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="5"/>
     </row>
@@ -1025,7 +1016,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,7 +1024,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,7 +1032,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,7 +1048,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,7 +1056,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +1064,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,7 +1072,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,7 +1080,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,7 +1088,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,7 +1096,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,7 +1104,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,7 +1112,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,7 +1120,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,7 +1128,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,7 +1136,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,7 +1144,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,7 +1152,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,7 +1160,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,7 +1168,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,7 +1176,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,7 +1184,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,7 +1192,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,7 +1200,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,7 +1208,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,7 +1216,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,7 +1224,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,7 +1232,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,7 +1240,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,7 +1248,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,7 +1256,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,15 +1264,15 @@
         <v>62</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>41</v>
+      <c r="B71" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,7 +1280,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,7 +1288,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,7 +1296,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,7 +1304,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,7 +1312,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,7 +1320,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,7 +1328,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,7 +1336,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,7 +1344,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,7 +1352,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,7 +1360,7 @@
         <v>74</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,7 +1368,7 @@
         <v>75</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,7 +1376,7 @@
         <v>76</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,7 +1384,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,7 +1392,7 @@
         <v>78</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,7 +1400,7 @@
         <v>79</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,7 +1408,7 @@
         <v>80</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,7 +1416,7 @@
         <v>81</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,7 +1424,7 @@
         <v>82</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,7 +1432,7 @@
         <v>83</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,7 +1440,7 @@
         <v>84</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,7 +1448,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1456,7 @@
         <v>86</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1498,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F2:G33 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1523,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1535,21 +1526,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>80</v>
+      <c r="B3" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,10 +1548,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,10 +1559,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,7 +1727,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="F2:G33 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1745,73 +1736,73 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="106">
   <si>
     <t>Sr No</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Open Browser</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>Login_page</t>
@@ -344,6 +341,12 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -410,18 +413,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00CC"/>
-        <bgColor rgb="FFFF00FF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -439,7 +436,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,16 +460,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,19 +502,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="vizpod" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -651,19 +644,19 @@
   <dimension ref="A1:Z109"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="26" min="8" style="0" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.4285714285714"/>
+    <col min="1" max="1" hidden="false" style="0" width="11.5714285714286" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="25.8622448979592" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="17.2857142857143" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="11.5714285714286" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="20.7091836734694" collapsed="true"/>
+    <col min="6" max="7" hidden="false" style="0" width="11.5714285714286" collapsed="true"/>
+    <col min="8" max="26" hidden="false" style="0" width="8.70918367346939" collapsed="true"/>
+    <col min="27" max="1025" hidden="false" style="0" width="14.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -696,11 +689,11 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>1941</v>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2008.0</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -730,13 +723,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>2031</v>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2021.0</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -766,13 +759,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>8128</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8122.0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -802,22 +795,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1062</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1091</v>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1085.0</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -845,13 +838,13 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1349</v>
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1649.0</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -879,13 +872,13 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1100</v>
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1143.0</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -913,13 +906,13 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>2072</v>
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1225.0</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -947,13 +940,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1157</v>
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1202.0</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -981,13 +974,13 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1000</v>
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000.0</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1015,13 +1008,13 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>1187</v>
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1153.0</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1048,13 +1041,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1104</v>
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1135.0</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1084,22 +1077,22 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1087.0</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1094</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>1245</v>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1174.0</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1126,13 +1119,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1075</v>
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1086.0</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1163,13 +1156,13 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v>1093</v>
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1135.0</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1196,13 +1189,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>1083</v>
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1083.0</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,7 +1225,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1264,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1296,7 +1289,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1328,7 +1321,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1360,7 +1353,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1392,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1424,7 +1417,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1456,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1488,7 +1481,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1520,7 +1513,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1552,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1584,7 +1577,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1616,7 +1609,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1648,7 +1641,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1680,13 +1673,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>1091</v>
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1084.0</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1716,22 +1709,22 @@
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1463.0</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1442</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="4" t="n">
-        <v>1000</v>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1001.0</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1759,13 +1752,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -1793,13 +1780,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="4" t="n">
-        <v>1000</v>
+        <v>33</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -1827,13 +1808,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -1861,13 +1836,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="4" t="n">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -1895,13 +1864,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -1929,13 +1892,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="4" t="n">
-        <v>1000</v>
+        <v>37</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -1963,13 +1920,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1997,13 +1948,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="4" t="n">
-        <v>1000</v>
+        <v>39</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2031,13 +1976,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="4" t="n">
-        <v>1001</v>
+        <v>40</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2065,13 +2004,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="4" t="n">
-        <v>1000</v>
+        <v>41</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2126,7 +2059,7 @@
         <v>25</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2158,7 +2091,7 @@
         <v>26</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2190,7 +2123,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2222,7 +2155,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2254,7 +2187,7 @@
         <v>29</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2286,7 +2219,7 @@
         <v>30</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2318,7 +2251,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2350,7 +2283,7 @@
         <v>32</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2382,7 +2315,7 @@
         <v>33</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2414,7 +2347,7 @@
         <v>34</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2446,7 +2379,7 @@
         <v>35</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2478,7 +2411,7 @@
         <v>36</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2510,7 +2443,7 @@
         <v>37</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2542,7 +2475,7 @@
         <v>38</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2574,7 +2507,7 @@
         <v>39</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2606,7 +2539,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2638,7 +2571,7 @@
         <v>41</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2670,7 +2603,7 @@
         <v>42</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2702,7 +2635,7 @@
         <v>43</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2734,7 +2667,7 @@
         <v>44</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2766,7 +2699,7 @@
         <v>45</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2798,7 +2731,7 @@
         <v>46</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2830,7 +2763,7 @@
         <v>47</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2862,7 +2795,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2894,7 +2827,7 @@
         <v>49</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2926,7 +2859,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2958,7 +2891,7 @@
         <v>51</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2990,7 +2923,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3022,7 +2955,7 @@
         <v>53</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3054,7 +2987,7 @@
         <v>54</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3086,7 +3019,7 @@
         <v>55</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3118,7 +3051,7 @@
         <v>56</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3150,7 +3083,7 @@
         <v>57</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3182,7 +3115,7 @@
         <v>58</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3214,7 +3147,7 @@
         <v>59</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3246,7 +3179,7 @@
         <v>60</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3278,7 +3211,7 @@
         <v>61</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3310,7 +3243,7 @@
         <v>62</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3342,7 +3275,7 @@
         <v>63</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3374,7 +3307,7 @@
         <v>64</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3406,7 +3339,7 @@
         <v>65</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3438,7 +3371,7 @@
         <v>66</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3470,7 +3403,7 @@
         <v>67</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3502,7 +3435,7 @@
         <v>68</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3534,7 +3467,7 @@
         <v>69</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3566,7 +3499,7 @@
         <v>70</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3598,7 +3531,7 @@
         <v>71</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3630,7 +3563,7 @@
         <v>72</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3662,7 +3595,7 @@
         <v>73</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3694,7 +3627,7 @@
         <v>74</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3726,7 +3659,7 @@
         <v>75</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3758,7 +3691,7 @@
         <v>76</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3790,7 +3723,7 @@
         <v>77</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3822,7 +3755,7 @@
         <v>78</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3854,7 +3787,7 @@
         <v>79</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3886,7 +3819,7 @@
         <v>80</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3918,7 +3851,7 @@
         <v>81</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3950,7 +3883,7 @@
         <v>82</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3982,7 +3915,7 @@
         <v>83</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4014,7 +3947,7 @@
         <v>84</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4046,7 +3979,7 @@
         <v>85</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4078,7 +4011,7 @@
         <v>86</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4258,17 +4191,17 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:G67 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4234693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="4" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="26" min="13" style="0" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.4285714285714"/>
+    <col min="1" max="1" hidden="false" style="0" width="16.8673469387755" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="16.0" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="23.4234693877551" collapsed="true"/>
+    <col min="4" max="12" hidden="false" style="0" width="11.5714285714286" collapsed="true"/>
+    <col min="13" max="26" hidden="false" style="0" width="8.70918367346939" collapsed="true"/>
+    <col min="27" max="1025" hidden="false" style="0" width="14.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4276,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -4288,10 +4221,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4299,10 +4232,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4310,10 +4243,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4321,10 +4254,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4489,84 +4422,84 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:G67 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.4285714285714"/>
+    <col min="1" max="6" hidden="false" style="0" width="11.5714285714286" collapsed="true"/>
+    <col min="7" max="26" hidden="false" style="0" width="8.70918367346939" collapsed="true"/>
+    <col min="27" max="1025" hidden="false" style="0" width="14.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
   <si>
     <t>Sr No</t>
   </si>
@@ -49,25 +49,37 @@
     <t>Data Discovery</t>
   </si>
   <si>
-    <t>Account Card</t>
-  </si>
-  <si>
-    <t>Account Edit</t>
-  </si>
-  <si>
-    <t>Meta Comp</t>
-  </si>
-  <si>
-    <t>Sample Record</t>
-  </si>
-  <si>
-    <t>Data Store</t>
-  </si>
-  <si>
-    <t>Download</t>
-  </si>
-  <si>
-    <t>Knowledge Graph</t>
+    <t>DataDiscoveryCard</t>
+  </si>
+  <si>
+    <t>DatapodEdit</t>
+  </si>
+  <si>
+    <t>DatapodMetaComp</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>DatapodSampleRecord</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>HistogramGrid</t>
+  </si>
+  <si>
+    <t>HistogramChart</t>
+  </si>
+  <si>
+    <t>DatapodDataStore</t>
+  </si>
+  <si>
+    <t>DatapodDownload</t>
+  </si>
+  <si>
+    <t>DatapodGraph</t>
   </si>
   <si>
     <t>Data Visualization</t>
@@ -77,6 +89,9 @@
   </si>
   <si>
     <t>Dashboard Tile</t>
+  </si>
+  <si>
+    <t>DashboardAdd</t>
   </si>
   <si>
     <t>Vizpod</t>
@@ -410,18 +425,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00CC"/>
-        <bgColor rgb="FFFF00FF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -439,7 +448,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,16 +472,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,21 +514,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="vizpod" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <sz val="10"/>
@@ -565,20 +570,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -588,7 +579,7 @@
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00CC"/>
+      <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
@@ -648,10 +639,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z109"/>
+  <dimension ref="A1:Z114"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -700,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1941</v>
+        <v>4169</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -736,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2031</v>
+        <v>2109</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -772,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>8128</v>
+        <v>8291</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -808,16 +799,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1062</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1091</v>
+        <v>1261</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -844,14 +835,14 @@
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1349</v>
+        <v>1994</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -878,14 +869,14 @@
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>1100</v>
+        <v>16299</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -912,14 +903,14 @@
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="G8" s="4" t="n">
-        <v>2072</v>
+        <v>1372</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -946,14 +937,14 @@
       <c r="B9" s="5"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1157</v>
+        <v>60281</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -980,14 +971,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1000</v>
+        <v>1372</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1014,14 +1005,14 @@
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1187</v>
+        <v>1372</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1044,21 +1035,19 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>1104</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4" t="n">
+        <v>1576</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1080,26 +1069,18 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1094</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1245</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1122,21 +1103,19 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <v>1075</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="4" t="n">
+        <v>1372</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1158,19 +1137,21 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="A15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>1093</v>
-      </c>
+      <c r="D15" s="4" t="n">
+        <v>1391</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1193,7 +1174,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>22</v>
@@ -1202,11 +1183,17 @@
         <v>6</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>1083</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>1165</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>1229</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1228,17 +1215,19 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>1169</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1261,13 +1250,17 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1234</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1292,17 +1285,19 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>1306</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1325,13 +1320,17 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1216</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1357,10 +1356,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1389,10 +1388,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1421,10 +1420,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1453,10 +1452,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1485,10 +1484,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1517,9 +1516,9 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="3"/>
@@ -1549,10 +1548,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1581,10 +1580,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1613,10 +1612,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1645,10 +1644,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1677,17 +1676,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>1091</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1713,26 +1708,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1442</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="4" t="n">
-        <v>1000</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1754,19 +1739,17 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="4" t="n">
-        <v>1000</v>
-      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1788,19 +1771,17 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="4" t="n">
-        <v>1000</v>
-      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -1822,19 +1803,21 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
+      <c r="A35" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="4" t="n">
-        <v>1000</v>
-      </c>
+      <c r="D35" s="4" t="n">
+        <v>1239</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -1856,12 +1839,20 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>1220</v>
+      </c>
       <c r="E36" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>6</v>
@@ -1895,7 +1886,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>6</v>
@@ -1929,7 +1920,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>6</v>
@@ -1963,7 +1954,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>6</v>
@@ -1997,7 +1988,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>6</v>
@@ -2031,13 +2022,13 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2065,7 +2056,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>6</v>
@@ -2098,9 +2089,15 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>1000</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -2122,17 +2119,19 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>1000</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2154,17 +2153,19 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>1000</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2186,17 +2187,19 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2218,15 +2221,11 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
@@ -2251,14 +2250,14 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
@@ -2283,10 +2282,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2315,10 +2314,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2347,14 +2346,14 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="4"/>
@@ -2379,14 +2378,14 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
@@ -2411,14 +2410,14 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
@@ -2443,10 +2442,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2475,10 +2474,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2507,10 +2506,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2539,10 +2538,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2571,10 +2570,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2603,10 +2602,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2635,10 +2634,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2667,10 +2666,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2699,10 +2698,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2731,10 +2730,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2763,10 +2762,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2795,10 +2794,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2827,10 +2826,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2859,10 +2858,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2891,10 +2890,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2923,10 +2922,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2955,10 +2954,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2987,10 +2986,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3019,10 +3018,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3051,10 +3050,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3083,10 +3082,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3115,10 +3114,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3147,10 +3146,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3179,10 +3178,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3211,10 +3210,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3243,10 +3242,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3275,10 +3274,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3307,10 +3306,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3339,10 +3338,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3371,10 +3370,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3403,10 +3402,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3435,10 +3434,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3467,10 +3466,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3499,10 +3498,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3531,10 +3530,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3563,9 +3562,9 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B89" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C89" s="3"/>
@@ -3595,7 +3594,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>70</v>
@@ -3627,10 +3626,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3659,10 +3658,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3691,10 +3690,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3723,10 +3722,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3755,10 +3754,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3787,10 +3786,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3819,10 +3818,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3851,10 +3850,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3883,10 +3882,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3915,10 +3914,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3947,10 +3946,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3979,10 +3978,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4011,10 +4010,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4043,10 +4042,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4075,10 +4074,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4107,9 +4106,11 @@
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4137,9 +4138,11 @@
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4167,9 +4170,11 @@
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4197,9 +4202,11 @@
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4225,6 +4232,152 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
     </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A2:Z600">
     <cfRule type="containsText" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="PASS" dxfId="0"/>
@@ -4234,11 +4387,8 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Z600">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B600">
-    <cfRule type="endsWith" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="pod" dxfId="3"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.575" bottom="1.575" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4276,10 +4426,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -4288,10 +4438,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4299,10 +4449,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4310,10 +4460,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4321,10 +4471,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4501,72 +4651,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
   <si>
     <t>Sr No</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Open Browser</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Login_page</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>Meta Comp</t>
   </si>
   <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>Sample Record</t>
   </si>
   <si>
@@ -148,7 +154,40 @@
     <t>Dataset</t>
   </si>
   <si>
+    <t>Dataset  Add</t>
+  </si>
+  <si>
+    <t>Dataset Action View</t>
+  </si>
+  <si>
+    <t>Dataset Action Edit</t>
+  </si>
+  <si>
+    <t>Dataset Action Delete</t>
+  </si>
+  <si>
+    <t>Dataset Action Restore</t>
+  </si>
+  <si>
+    <t>Dataset Action Lock</t>
+  </si>
+  <si>
+    <t>Dataset Action UnLock</t>
+  </si>
+  <si>
+    <t>Dataset Action Publish</t>
+  </si>
+  <si>
+    <t>Dataset Action UnPublish</t>
+  </si>
+  <si>
+    <t>Dataset Action Clone</t>
+  </si>
+  <si>
     <t>Expression</t>
+  </si>
+  <si>
+    <t>Dataset Action Export</t>
   </si>
   <si>
     <t>Formula</t>
@@ -341,12 +380,6 @@
   </si>
   <si>
     <t>f</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -515,7 +548,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <sz val="10"/>
@@ -558,20 +591,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -581,7 +600,7 @@
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00CC"/>
+      <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
@@ -641,10 +660,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z109"/>
+  <dimension ref="A1:Z118"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:G67"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G48" activeCellId="0" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -690,10 +709,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2008.0</v>
+        <v>2159.0</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -723,13 +742,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
       <c r="D3" t="n">
-        <v>2021.0</v>
+        <v>2067.0</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -759,13 +778,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>8122.0</v>
+        <v>8127.0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -795,22 +814,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1070.0</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1070</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1085.0</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1085</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -838,13 +857,13 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1649.0</v>
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1649</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -872,13 +891,13 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1143.0</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>1143</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -906,13 +925,13 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1225.0</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1225</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -940,13 +959,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1202.0</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>1202</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -974,13 +993,13 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1000.0</v>
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>1000</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1008,13 +1027,13 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1153.0</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>1153</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1041,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1135.0</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>1135</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1077,22 +1096,22 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1087.0</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1087</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1174.0</v>
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>1174</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1119,13 +1138,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1086.0</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1086</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1156,13 +1175,13 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1135.0</v>
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>1135</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1189,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1083.0</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1083</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1225,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1257,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1289,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1321,7 +1340,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1353,7 +1372,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1385,7 +1404,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1417,7 +1436,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1449,7 +1468,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1481,7 +1500,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1513,7 +1532,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1545,7 +1564,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1577,7 +1596,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1609,7 +1628,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1641,7 +1660,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1673,13 +1692,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1084.0</v>
+        <v>1064.0</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1709,22 +1728,22 @@
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1463.0</v>
+        <v>1090.0</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1001.0</v>
+        <v>33</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>1001</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1752,8 +1771,10 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1780,8 +1801,10 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -1808,8 +1831,10 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -1836,8 +1861,10 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -1864,8 +1891,10 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -1892,8 +1921,10 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -1920,8 +1951,10 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -1948,8 +1981,10 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -1976,8 +2011,10 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -2004,8 +2041,10 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -2059,13 +2098,19 @@
         <v>25</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="E44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>1001</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2087,17 +2132,15 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="E45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2119,17 +2162,15 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="E46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2151,17 +2192,15 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="E47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -2183,17 +2222,15 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="E48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2215,17 +2252,15 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="E49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -2247,17 +2282,15 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="E50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -2279,17 +2312,15 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="E51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -2311,17 +2342,15 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="E52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -2343,17 +2372,15 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="E53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -2376,16 +2403,18 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="E54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2408,10 +2437,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2440,14 +2469,14 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="E56" s="5"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="4"/>
@@ -2472,14 +2501,14 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="5"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="4"/>
@@ -2504,14 +2533,14 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="4"/>
@@ -2536,10 +2565,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2568,10 +2597,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2600,10 +2629,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2632,10 +2661,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2664,10 +2693,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2696,10 +2725,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2728,10 +2757,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>54</v>
+        <v>37</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2760,10 +2789,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2792,10 +2821,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2824,10 +2853,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2856,10 +2885,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2888,10 +2917,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2920,10 +2949,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2952,10 +2981,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2984,10 +3013,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3016,10 +3045,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3048,10 +3077,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3080,10 +3109,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3112,10 +3141,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3144,10 +3173,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3176,10 +3205,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3208,10 +3237,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3240,10 +3269,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3272,10 +3301,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3304,10 +3333,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>25</v>
+        <v>55</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3336,10 +3365,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3368,10 +3397,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3400,10 +3429,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3432,10 +3461,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3464,10 +3493,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3496,10 +3525,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3528,10 +3557,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3560,10 +3589,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3592,10 +3621,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3624,10 +3653,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3656,10 +3685,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3688,10 +3717,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3720,10 +3749,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3752,10 +3781,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3784,10 +3813,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3816,10 +3845,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3848,10 +3877,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3880,10 +3909,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3912,10 +3941,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3944,10 +3973,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3976,10 +4005,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4008,10 +4037,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4040,9 +4069,11 @@
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="B106" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4070,9 +4101,11 @@
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="B107" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4100,9 +4133,11 @@
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="B108" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4130,9 +4165,11 @@
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="B109" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4158,20 +4195,297 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
     </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Z600">
+  <conditionalFormatting sqref="A2:Z609">
     <cfRule type="containsText" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="PASS" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:Z600">
+  <conditionalFormatting sqref="A2:Z43,A55:Z609,A44:D54,H44:Z54">
     <cfRule type="containsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FAIL" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Z600">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B600">
-    <cfRule type="endsWith" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="pod" dxfId="3"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.575" bottom="1.575" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4191,7 +4505,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:G67 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4209,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -4221,10 +4535,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4232,10 +4546,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4243,10 +4557,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4254,10 +4568,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4422,7 +4736,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:G67 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4434,72 +4748,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="214">
   <si>
     <t xml:space="preserve">Sr No</t>
   </si>
@@ -1024,7 +1024,7 @@
         <v>212</v>
       </c>
       <c r="D2" t="n">
-        <v>1756.0</v>
+        <v>2737.0</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1041,7 +1041,7 @@
         <v>212</v>
       </c>
       <c r="D3" t="n">
-        <v>2035.0</v>
+        <v>2043.0</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1058,7 +1058,7 @@
         <v>212</v>
       </c>
       <c r="D4" t="n">
-        <v>8172.0</v>
+        <v>8160.0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2110,7 +2110,7 @@
         <v>212</v>
       </c>
       <c r="D91" t="n">
-        <v>1148.0</v>
+        <v>1162.0</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -2126,7 +2126,7 @@
         <v>212</v>
       </c>
       <c r="G92" t="n">
-        <v>2473.0</v>
+        <v>2409.0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2158,7 +2158,7 @@
         <v>212</v>
       </c>
       <c r="J94" t="n">
-        <v>1463.0</v>
+        <v>1381.0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2174,7 +2174,7 @@
         <v>212</v>
       </c>
       <c r="J95" t="n">
-        <v>1312.0</v>
+        <v>1338.0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2206,7 +2206,7 @@
         <v>212</v>
       </c>
       <c r="J97" t="n">
-        <v>1124.0</v>
+        <v>1114.0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2222,7 +2222,7 @@
         <v>212</v>
       </c>
       <c r="J98" t="n">
-        <v>1000.0</v>
+        <v>1001.0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2254,7 +2254,7 @@
         <v>212</v>
       </c>
       <c r="J100" t="n">
-        <v>1000.0</v>
+        <v>1001.0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2302,7 +2302,7 @@
         <v>212</v>
       </c>
       <c r="J103" t="n">
-        <v>1000.0</v>
+        <v>1001.0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2328,7 +2328,7 @@
         <v>212</v>
       </c>
       <c r="J105" t="n">
-        <v>1159.0</v>
+        <v>1169.0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2344,7 +2344,7 @@
         <v>212</v>
       </c>
       <c r="J106" t="n">
-        <v>1092.0</v>
+        <v>1124.0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2360,7 +2360,7 @@
         <v>212</v>
       </c>
       <c r="J107" t="n">
-        <v>1130.0</v>
+        <v>1107.0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2376,7 +2376,7 @@
         <v>212</v>
       </c>
       <c r="J108" t="n">
-        <v>145248.0</v>
+        <v>20554.0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2392,7 +2392,7 @@
         <v>212</v>
       </c>
       <c r="J109" t="n">
-        <v>1628.0</v>
+        <v>1870.0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="report" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="report" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="datapod" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="dashboard" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="vizpod" sheetId="6" state="visible" r:id="rId7"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="214">
   <si>
     <t xml:space="preserve">Sr No</t>
   </si>
@@ -542,6 +542,33 @@
     <t xml:space="preserve">Metadata Navigator</t>
   </si>
   <si>
+    <t xml:space="preserve">Param_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USER_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ypalrecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSWORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLICATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise Data Warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin</t>
+  </si>
+  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
@@ -582,33 +609,6 @@
   </si>
   <si>
     <t xml:space="preserve">page 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USER_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ypalrecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSWORD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLICATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterprise Data Warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin</t>
   </si>
   <si>
     <r>
@@ -877,32 +877,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -973,21 +947,21 @@
   </sheetPr>
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="11.0714285714286" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.2448979591837" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="16.7397959183673" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="11.0714285714286" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="30.3724489795918" collapsed="true"/>
-    <col min="6" max="7" hidden="false" style="0" width="11.0714285714286" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="23.4897959183673" collapsed="true"/>
-    <col min="9" max="26" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
-    <col min="27" max="1025" hidden="false" style="0" width="13.9030612244898" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="24.9744897959184" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="16.469387755102" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="30.1020408163265" collapsed="true"/>
+    <col min="6" max="7" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="23.0816326530612" collapsed="true"/>
+    <col min="9" max="26" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="27" max="1025" hidden="false" style="0" width="13.6326530612245" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1024,7 +998,7 @@
         <v>212</v>
       </c>
       <c r="D2" t="n">
-        <v>2737.0</v>
+        <v>2190.0</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1041,7 +1015,7 @@
         <v>212</v>
       </c>
       <c r="D3" t="n">
-        <v>2043.0</v>
+        <v>2059.0</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1058,7 +1032,7 @@
         <v>212</v>
       </c>
       <c r="D4" t="n">
-        <v>8160.0</v>
+        <v>8172.0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2110,7 +2084,7 @@
         <v>212</v>
       </c>
       <c r="D91" t="n">
-        <v>1162.0</v>
+        <v>1146.0</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -2126,7 +2100,7 @@
         <v>212</v>
       </c>
       <c r="G92" t="n">
-        <v>2409.0</v>
+        <v>2450.0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2138,11 +2112,11 @@
       <c r="H93" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I93" t="s">
-        <v>212</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1000.0</v>
+      <c r="I93" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2154,11 +2128,11 @@
       <c r="H94" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I94" t="s">
-        <v>212</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1381.0</v>
+      <c r="I94" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <v>1381</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2170,11 +2144,11 @@
       <c r="H95" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I95" t="s">
-        <v>212</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1338.0</v>
+      <c r="I95" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <v>1338</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2186,11 +2160,11 @@
       <c r="H96" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I96" t="s">
-        <v>212</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1131.0</v>
+      <c r="I96" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <v>1131</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2202,11 +2176,11 @@
       <c r="H97" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I97" t="s">
-        <v>212</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1114.0</v>
+      <c r="I97" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>1114</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2218,11 +2192,11 @@
       <c r="H98" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I98" t="s">
-        <v>212</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1001.0</v>
+      <c r="I98" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>1001</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2234,11 +2208,11 @@
       <c r="H99" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I99" t="s">
-        <v>212</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1000.0</v>
+      <c r="I99" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2250,11 +2224,11 @@
       <c r="H100" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I100" t="s">
-        <v>212</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1001.0</v>
+      <c r="I100" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>1001</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2266,11 +2240,11 @@
       <c r="H101" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I101" t="s">
-        <v>212</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1000.0</v>
+      <c r="I101" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2282,11 +2256,11 @@
       <c r="H102" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I102" t="s">
-        <v>212</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1000.0</v>
+      <c r="I102" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2298,11 +2272,11 @@
       <c r="H103" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I103" t="s">
-        <v>212</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1001.0</v>
+      <c r="I103" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>1001</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2324,11 +2298,11 @@
       <c r="H105" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I105" t="s">
-        <v>212</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1169.0</v>
+      <c r="I105" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>1169</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2340,11 +2314,11 @@
       <c r="H106" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I106" t="s">
-        <v>212</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1124.0</v>
+      <c r="I106" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <v>1124</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2356,11 +2330,11 @@
       <c r="H107" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I107" t="s">
-        <v>212</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1107.0</v>
+      <c r="I107" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <v>1107</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2372,11 +2346,11 @@
       <c r="H108" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I108" t="s">
-        <v>212</v>
-      </c>
-      <c r="J108" t="n">
-        <v>20554.0</v>
+      <c r="I108" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <v>20554</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2388,11 +2362,11 @@
       <c r="H109" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I109" t="s">
-        <v>212</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1870.0</v>
+      <c r="I109" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <v>1870</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3475,7 +3449,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3483,67 +3457,220 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="13.9030612244898" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.1071428571429" collapsed="true"/>
-    <col min="3" max="4" hidden="false" style="0" width="13.9030612244898" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="17.0102040816327" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="18.3571428571429" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="13.9030612244898" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="16.0663265306122" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="15.5255102040816" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="22.5459183673469" collapsed="true"/>
+    <col min="4" max="12" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
+    <col min="13" max="26" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="27" max="1025" hidden="false" style="0" width="13.6326530612245" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="C4" s="0" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C5" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>184</v>
-      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3553,7 +3680,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3561,220 +3688,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="16.3316326530612" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="15.6581632653061" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="22.8112244897959" collapsed="true"/>
-    <col min="4" max="12" hidden="false" style="0" width="11.0714285714286" collapsed="true"/>
-    <col min="13" max="26" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
-    <col min="27" max="1025" hidden="false" style="0" width="13.9030612244898" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="13.6326530612245" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="24.8367346938776" collapsed="true"/>
+    <col min="3" max="4" hidden="false" style="0" width="13.6326530612245" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="16.7397959183673" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="18.0867346938776" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="13.6326530612245" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E2" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="G2" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -3792,14 +3766,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" hidden="false" style="0" width="11.0714285714286" collapsed="true"/>
-    <col min="7" max="26" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
-    <col min="27" max="1025" hidden="false" style="0" width="13.9030612244898" collapsed="true"/>
+    <col min="1" max="6" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
+    <col min="7" max="26" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="27" max="1025" hidden="false" style="0" width="13.6326530612245" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>194</v>
@@ -3891,7 +3865,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="13.9030612244898" collapsed="true"/>
+    <col min="1" max="1025" hidden="false" style="0" width="13.6326530612245" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3899,13 +3873,13 @@
         <v>203</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>204</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3916,10 +3890,10 @@
         <v>206</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3946,18 +3920,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="13.9030612244898" collapsed="true"/>
+    <col min="1" max="1025" hidden="false" style="0" width="13.6326530612245" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>207</v>
@@ -3987,21 +3961,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="20.25" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="61.6887755102041" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="13.9030612244898" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="19.9795918367347" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="61.015306122449" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="14.5816326530612" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="13.6326530612245" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4012,7 +3986,7 @@
         <v>209</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4033,23 +4007,23 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="26.1785714285714" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="34.515306122449" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="25.7857142857143" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="34.1530612244898" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.3418367346939" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
